--- a/Join_tables/Table1.xlsx
+++ b/Join_tables/Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharc\Documents\GitHub\machine_learning\Join_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FEEC836-C265-40AB-A939-26280F53BDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BAE59E-04BC-4A15-B480-CE93147CAA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3CA63EA6-F587-4398-80ED-296033D06ABF}"/>
   </bookViews>
@@ -37,21 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
-    <t>Cartao</t>
-  </si>
-  <si>
-    <t>Boleto</t>
-  </si>
-  <si>
-    <t>PIX</t>
-  </si>
-  <si>
-    <t>Ciência Dados</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -59,6 +44,21 @@
   </si>
   <si>
     <t>Installments</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>PayPal</t>
   </si>
 </sst>
 </file>
@@ -413,27 +413,28 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -441,10 +442,10 @@
         <v>88082</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -455,10 +456,10 @@
         <v>53712</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -469,10 +470,10 @@
         <v>15456</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -483,10 +484,10 @@
         <v>25773</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -497,10 +498,10 @@
         <v>59159</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -511,10 +512,10 @@
         <v>72488</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -525,10 +526,10 @@
         <v>64230</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -539,10 +540,10 @@
         <v>44371</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -553,10 +554,10 @@
         <v>7988</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -567,10 +568,10 @@
         <v>42509</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -581,10 +582,10 @@
         <v>24004</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>12</v>
